--- a/biology/Histoire de la zoologie et de la botanique/Charles_Thom/Charles_Thom.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Thom/Charles_Thom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Thom (11 novembre 1872 à Minonk dans l'Illinois aux États-Unis - 24 mai 1956 à Port Jefferson, New York, États-Unis) est un mycologue dont le travail dans la microbiologie des produits laitiers et les champignons du sol a une influence importante sur l'établissement de normes rigoureuses dans le traitement des denrées alimentaires et de transformation aux États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps associé avec le ministère américain de l'Agriculture (USDA), il a mené des recherches sur la toxicité alimentaire et les normes appliquées de la pureté des aliments et drogues. Le Dr Thom est une autorité mondialement reconnue en matière des moules utilisés dans l'affinage du fromage et le premier à décrire Penicillium roqueforti et P. camemberti, principes actifs des deux fromages populaires. Ses études de microfungi aboutit à la publication de L'Aspergillus (avec Margaret B. Church, 1926) et The penicillia (1930).
 Charles Thom a reçu son A.B. (1895) et A.M. (1897) à Lake Forest College et son doctorat (1899) à l'Université du Missouri, le premier doctorat à être passé par cette institution. Début de sa carrière comme professeur de botanique mené à la recherche de Woods Hole biologique de laboratoire et un poste d'assistant de George F. Atkinson à l'Université Cornell.
